--- a/result.xlsx
+++ b/result.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -497,13 +497,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
